--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6761,16 +6761,16 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>5816676440000</v>
+        <v>5817095330000</v>
       </c>
       <c r="D253" t="n">
-        <v>5816676440000</v>
+        <v>5817095330000</v>
       </c>
       <c r="E253" t="n">
-        <v>5816676440000</v>
+        <v>5817095330000</v>
       </c>
       <c r="F253" t="n">
-        <v>5816676440000</v>
+        <v>5817095330000</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -6786,16 +6786,16 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>5951115760000</v>
+        <v>5950864520000</v>
       </c>
       <c r="D254" t="n">
-        <v>5951115760000</v>
+        <v>5950864520000</v>
       </c>
       <c r="E254" t="n">
-        <v>5951115760000</v>
+        <v>5950864520000</v>
       </c>
       <c r="F254" t="n">
-        <v>5951115760000</v>
+        <v>5950864520000</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -6811,18 +6811,93 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>6045009370000</v>
+        <v>6045092150000</v>
       </c>
       <c r="D255" t="n">
-        <v>6045009370000</v>
+        <v>6045092150000</v>
       </c>
       <c r="E255" t="n">
-        <v>6045009370000</v>
+        <v>6045092150000</v>
       </c>
       <c r="F255" t="n">
-        <v>6045009370000</v>
+        <v>6045092150000</v>
       </c>
       <c r="G255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CZM2</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>6077620130000</v>
+      </c>
+      <c r="D256" t="n">
+        <v>6077620130000</v>
+      </c>
+      <c r="E256" t="n">
+        <v>6077620130000</v>
+      </c>
+      <c r="F256" t="n">
+        <v>6077620130000</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CZM2</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>6141246740000</v>
+      </c>
+      <c r="D257" t="n">
+        <v>6141246740000</v>
+      </c>
+      <c r="E257" t="n">
+        <v>6141246740000</v>
+      </c>
+      <c r="F257" t="n">
+        <v>6141246740000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CZM2</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>6224272840000</v>
+      </c>
+      <c r="D258" t="n">
+        <v>6224272840000</v>
+      </c>
+      <c r="E258" t="n">
+        <v>6224272840000</v>
+      </c>
+      <c r="F258" t="n">
+        <v>6224272840000</v>
+      </c>
+      <c r="G258" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5561,16 +5561,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4373170050000</v>
+        <v>4373594970000</v>
       </c>
       <c r="D205" t="n">
-        <v>4373170050000</v>
+        <v>4373594970000</v>
       </c>
       <c r="E205" t="n">
-        <v>4373170050000</v>
+        <v>4373594970000</v>
       </c>
       <c r="F205" t="n">
-        <v>4373170050000</v>
+        <v>4373594970000</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -5586,16 +5586,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>4411369020000</v>
+        <v>4411934620000</v>
       </c>
       <c r="D206" t="n">
-        <v>4411369020000</v>
+        <v>4411934620000</v>
       </c>
       <c r="E206" t="n">
-        <v>4411369020000</v>
+        <v>4411934620000</v>
       </c>
       <c r="F206" t="n">
-        <v>4411369020000</v>
+        <v>4411934620000</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5686,16 +5686,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>4577407600000</v>
+        <v>4577407590000</v>
       </c>
       <c r="D210" t="n">
-        <v>4577407600000</v>
+        <v>4577407590000</v>
       </c>
       <c r="E210" t="n">
-        <v>4577407600000</v>
+        <v>4577407590000</v>
       </c>
       <c r="F210" t="n">
-        <v>4577407600000</v>
+        <v>4577407590000</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4566451100000</v>
+        <v>4566459490000</v>
       </c>
       <c r="D211" t="n">
-        <v>4566451100000</v>
+        <v>4566459490000</v>
       </c>
       <c r="E211" t="n">
-        <v>4566451100000</v>
+        <v>4566459490000</v>
       </c>
       <c r="F211" t="n">
-        <v>4566451100000</v>
+        <v>4566459490000</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -5736,16 +5736,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>4592288960000</v>
+        <v>4592275590000</v>
       </c>
       <c r="D212" t="n">
-        <v>4592288960000</v>
+        <v>4592275590000</v>
       </c>
       <c r="E212" t="n">
-        <v>4592288960000</v>
+        <v>4592275590000</v>
       </c>
       <c r="F212" t="n">
-        <v>4592288960000</v>
+        <v>4592275590000</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -5761,16 +5761,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4639954010000</v>
+        <v>4639859400000</v>
       </c>
       <c r="D213" t="n">
-        <v>4639954010000</v>
+        <v>4639859400000</v>
       </c>
       <c r="E213" t="n">
-        <v>4639954010000</v>
+        <v>4639859400000</v>
       </c>
       <c r="F213" t="n">
-        <v>4639954010000</v>
+        <v>4639859400000</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -5786,16 +5786,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4641362350000</v>
+        <v>4641345140000</v>
       </c>
       <c r="D214" t="n">
-        <v>4641362350000</v>
+        <v>4641345140000</v>
       </c>
       <c r="E214" t="n">
-        <v>4641362350000</v>
+        <v>4641345140000</v>
       </c>
       <c r="F214" t="n">
-        <v>4641362350000</v>
+        <v>4641345140000</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -5811,16 +5811,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4681213570000</v>
+        <v>4681223420000</v>
       </c>
       <c r="D215" t="n">
-        <v>4681213570000</v>
+        <v>4681223420000</v>
       </c>
       <c r="E215" t="n">
-        <v>4681213570000</v>
+        <v>4681223420000</v>
       </c>
       <c r="F215" t="n">
-        <v>4681213570000</v>
+        <v>4681223420000</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -5836,16 +5836,16 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>4725517240000</v>
+        <v>4725508480000</v>
       </c>
       <c r="D216" t="n">
-        <v>4725517240000</v>
+        <v>4725508480000</v>
       </c>
       <c r="E216" t="n">
-        <v>4725517240000</v>
+        <v>4725508480000</v>
       </c>
       <c r="F216" t="n">
-        <v>4725517240000</v>
+        <v>4725508480000</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -5861,16 +5861,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4680363740000</v>
+        <v>4680322510000</v>
       </c>
       <c r="D217" t="n">
-        <v>4680363740000</v>
+        <v>4680322510000</v>
       </c>
       <c r="E217" t="n">
-        <v>4680363740000</v>
+        <v>4680322510000</v>
       </c>
       <c r="F217" t="n">
-        <v>4680363740000</v>
+        <v>4680322510000</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -5911,16 +5911,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>4809042720000</v>
+        <v>4809150480000</v>
       </c>
       <c r="D219" t="n">
-        <v>4809042720000</v>
+        <v>4809150480000</v>
       </c>
       <c r="E219" t="n">
-        <v>4809042720000</v>
+        <v>4809150480000</v>
       </c>
       <c r="F219" t="n">
-        <v>4809042720000</v>
+        <v>4809150480000</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -5961,16 +5961,16 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4958717610000</v>
+        <v>4958595660000</v>
       </c>
       <c r="D221" t="n">
-        <v>4958717610000</v>
+        <v>4958595660000</v>
       </c>
       <c r="E221" t="n">
-        <v>4958717610000</v>
+        <v>4958595660000</v>
       </c>
       <c r="F221" t="n">
-        <v>4958717610000</v>
+        <v>4958595660000</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>5004609390000</v>
+        <v>5004666910000</v>
       </c>
       <c r="D222" t="n">
-        <v>5004609390000</v>
+        <v>5004666910000</v>
       </c>
       <c r="E222" t="n">
-        <v>5004609390000</v>
+        <v>5004666910000</v>
       </c>
       <c r="F222" t="n">
-        <v>5004609390000</v>
+        <v>5004666910000</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -6011,16 +6011,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>5020824960000</v>
+        <v>5020790900000</v>
       </c>
       <c r="D223" t="n">
-        <v>5020824960000</v>
+        <v>5020790900000</v>
       </c>
       <c r="E223" t="n">
-        <v>5020824960000</v>
+        <v>5020790900000</v>
       </c>
       <c r="F223" t="n">
-        <v>5020824960000</v>
+        <v>5020790900000</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -6036,16 +6036,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5059207370000</v>
+        <v>5059232680000</v>
       </c>
       <c r="D224" t="n">
-        <v>5059207370000</v>
+        <v>5059232680000</v>
       </c>
       <c r="E224" t="n">
-        <v>5059207370000</v>
+        <v>5059232680000</v>
       </c>
       <c r="F224" t="n">
-        <v>5059207370000</v>
+        <v>5059232680000</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -6061,16 +6061,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>5094328550000</v>
+        <v>5094308060000</v>
       </c>
       <c r="D225" t="n">
-        <v>5094328550000</v>
+        <v>5094308060000</v>
       </c>
       <c r="E225" t="n">
-        <v>5094328550000</v>
+        <v>5094308060000</v>
       </c>
       <c r="F225" t="n">
-        <v>5094328550000</v>
+        <v>5094308060000</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -6086,16 +6086,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>5178059350000</v>
+        <v>5178041490000</v>
       </c>
       <c r="D226" t="n">
-        <v>5178059350000</v>
+        <v>5178041490000</v>
       </c>
       <c r="E226" t="n">
-        <v>5178059350000</v>
+        <v>5178041490000</v>
       </c>
       <c r="F226" t="n">
-        <v>5178059350000</v>
+        <v>5178041490000</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>5214257420000</v>
+        <v>5214187690000</v>
       </c>
       <c r="D227" t="n">
-        <v>5214257420000</v>
+        <v>5214187690000</v>
       </c>
       <c r="E227" t="n">
-        <v>5214257420000</v>
+        <v>5214187690000</v>
       </c>
       <c r="F227" t="n">
-        <v>5214257420000</v>
+        <v>5214187690000</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -6136,16 +6136,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>5235469580000</v>
+        <v>5235568230000</v>
       </c>
       <c r="D228" t="n">
-        <v>5235469580000</v>
+        <v>5235568230000</v>
       </c>
       <c r="E228" t="n">
-        <v>5235469580000</v>
+        <v>5235568230000</v>
       </c>
       <c r="F228" t="n">
-        <v>5235469580000</v>
+        <v>5235568230000</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
@@ -6161,16 +6161,16 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>5179705780000</v>
+        <v>5179738620000</v>
       </c>
       <c r="D229" t="n">
-        <v>5179705780000</v>
+        <v>5179738620000</v>
       </c>
       <c r="E229" t="n">
-        <v>5179705780000</v>
+        <v>5179738620000</v>
       </c>
       <c r="F229" t="n">
-        <v>5179705780000</v>
+        <v>5179738620000</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>5290482680000</v>
+        <v>5290478980000</v>
       </c>
       <c r="D230" t="n">
-        <v>5290482680000</v>
+        <v>5290478980000</v>
       </c>
       <c r="E230" t="n">
-        <v>5290482680000</v>
+        <v>5290478980000</v>
       </c>
       <c r="F230" t="n">
-        <v>5290482680000</v>
+        <v>5290478980000</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -6211,16 +6211,16 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5390476530000</v>
+        <v>5390398340000</v>
       </c>
       <c r="D231" t="n">
-        <v>5390476530000</v>
+        <v>5390398340000</v>
       </c>
       <c r="E231" t="n">
-        <v>5390476530000</v>
+        <v>5390398340000</v>
       </c>
       <c r="F231" t="n">
-        <v>5390476530000</v>
+        <v>5390398340000</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -6236,16 +6236,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>5449477500000</v>
+        <v>5449356120000</v>
       </c>
       <c r="D232" t="n">
-        <v>5449477500000</v>
+        <v>5449356120000</v>
       </c>
       <c r="E232" t="n">
-        <v>5449477500000</v>
+        <v>5449356120000</v>
       </c>
       <c r="F232" t="n">
-        <v>5449477500000</v>
+        <v>5449356120000</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5471490380000</v>
+        <v>5471474170000</v>
       </c>
       <c r="D233" t="n">
-        <v>5471490380000</v>
+        <v>5471474170000</v>
       </c>
       <c r="E233" t="n">
-        <v>5471490380000</v>
+        <v>5471474170000</v>
       </c>
       <c r="F233" t="n">
-        <v>5471490380000</v>
+        <v>5471474170000</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
@@ -6286,16 +6286,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>5507491420000</v>
+        <v>5507491430000</v>
       </c>
       <c r="D234" t="n">
-        <v>5507491420000</v>
+        <v>5507491430000</v>
       </c>
       <c r="E234" t="n">
-        <v>5507491420000</v>
+        <v>5507491430000</v>
       </c>
       <c r="F234" t="n">
-        <v>5507491420000</v>
+        <v>5507491430000</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6336,16 +6336,16 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>5564521600000</v>
+        <v>5564521500000</v>
       </c>
       <c r="D236" t="n">
-        <v>5564521600000</v>
+        <v>5564521500000</v>
       </c>
       <c r="E236" t="n">
-        <v>5564521600000</v>
+        <v>5564521500000</v>
       </c>
       <c r="F236" t="n">
-        <v>5564521600000</v>
+        <v>5564521500000</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6411,16 +6411,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5617152320000</v>
+        <v>5617130550000</v>
       </c>
       <c r="D239" t="n">
-        <v>5617152320000</v>
+        <v>5617130550000</v>
       </c>
       <c r="E239" t="n">
-        <v>5617152320000</v>
+        <v>5617130550000</v>
       </c>
       <c r="F239" t="n">
-        <v>5617152320000</v>
+        <v>5617130550000</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5647836650000</v>
+        <v>5647837280000</v>
       </c>
       <c r="D240" t="n">
-        <v>5647836650000</v>
+        <v>5647837280000</v>
       </c>
       <c r="E240" t="n">
-        <v>5647836650000</v>
+        <v>5647837280000</v>
       </c>
       <c r="F240" t="n">
-        <v>5647836650000</v>
+        <v>5647837280000</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6461,16 +6461,16 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5542017330000</v>
+        <v>5542014840000</v>
       </c>
       <c r="D241" t="n">
-        <v>5542017330000</v>
+        <v>5542014840000</v>
       </c>
       <c r="E241" t="n">
-        <v>5542017330000</v>
+        <v>5542014840000</v>
       </c>
       <c r="F241" t="n">
-        <v>5542017330000</v>
+        <v>5542014840000</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6486,16 +6486,16 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>5630380760000</v>
+        <v>5630383690000</v>
       </c>
       <c r="D242" t="n">
-        <v>5630380760000</v>
+        <v>5630383690000</v>
       </c>
       <c r="E242" t="n">
-        <v>5630380760000</v>
+        <v>5630383690000</v>
       </c>
       <c r="F242" t="n">
-        <v>5630380760000</v>
+        <v>5630383690000</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6511,16 +6511,16 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>5704250440000</v>
+        <v>5704249840000</v>
       </c>
       <c r="D243" t="n">
-        <v>5704250440000</v>
+        <v>5704249840000</v>
       </c>
       <c r="E243" t="n">
-        <v>5704250440000</v>
+        <v>5704249840000</v>
       </c>
       <c r="F243" t="n">
-        <v>5704250440000</v>
+        <v>5704249840000</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6536,16 +6536,16 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>5739159780000</v>
+        <v>5739159050000</v>
       </c>
       <c r="D244" t="n">
-        <v>5739159780000</v>
+        <v>5739159050000</v>
       </c>
       <c r="E244" t="n">
-        <v>5739159780000</v>
+        <v>5739159050000</v>
       </c>
       <c r="F244" t="n">
-        <v>5739159780000</v>
+        <v>5739159050000</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6561,16 +6561,16 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>5741489170000</v>
+        <v>5742427260000</v>
       </c>
       <c r="D245" t="n">
-        <v>5741489170000</v>
+        <v>5742427260000</v>
       </c>
       <c r="E245" t="n">
-        <v>5741489170000</v>
+        <v>5742427260000</v>
       </c>
       <c r="F245" t="n">
-        <v>5741489170000</v>
+        <v>5742427260000</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6586,16 +6586,16 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5822815770000</v>
+        <v>5825723830000</v>
       </c>
       <c r="D246" t="n">
-        <v>5822815770000</v>
+        <v>5825723830000</v>
       </c>
       <c r="E246" t="n">
-        <v>5822815770000</v>
+        <v>5825723830000</v>
       </c>
       <c r="F246" t="n">
-        <v>5822815770000</v>
+        <v>5825723830000</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6611,16 +6611,16 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>5801927790000</v>
+        <v>5801917230000</v>
       </c>
       <c r="D247" t="n">
-        <v>5801927790000</v>
+        <v>5801917230000</v>
       </c>
       <c r="E247" t="n">
-        <v>5801927790000</v>
+        <v>5801917230000</v>
       </c>
       <c r="F247" t="n">
-        <v>5801927790000</v>
+        <v>5801917230000</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6636,16 +6636,16 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>5833040100000</v>
+        <v>5833040250000</v>
       </c>
       <c r="D248" t="n">
-        <v>5833040100000</v>
+        <v>5833040250000</v>
       </c>
       <c r="E248" t="n">
-        <v>5833040100000</v>
+        <v>5833040250000</v>
       </c>
       <c r="F248" t="n">
-        <v>5833040100000</v>
+        <v>5833040250000</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>5855414920000</v>
+        <v>5855415460000</v>
       </c>
       <c r="D249" t="n">
-        <v>5855414920000</v>
+        <v>5855415460000</v>
       </c>
       <c r="E249" t="n">
-        <v>5855414920000</v>
+        <v>5855415460000</v>
       </c>
       <c r="F249" t="n">
-        <v>5855414920000</v>
+        <v>5855415460000</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6686,16 +6686,16 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>5887346900000</v>
+        <v>5887405600000</v>
       </c>
       <c r="D250" t="n">
-        <v>5887346900000</v>
+        <v>5887405600000</v>
       </c>
       <c r="E250" t="n">
-        <v>5887346900000</v>
+        <v>5887405600000</v>
       </c>
       <c r="F250" t="n">
-        <v>5887346900000</v>
+        <v>5887405600000</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6711,16 +6711,16 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>5915929780000</v>
+        <v>5915934540000</v>
       </c>
       <c r="D251" t="n">
-        <v>5915929780000</v>
+        <v>5915934540000</v>
       </c>
       <c r="E251" t="n">
-        <v>5915929780000</v>
+        <v>5915934540000</v>
       </c>
       <c r="F251" t="n">
-        <v>5915929780000</v>
+        <v>5915934540000</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6736,16 +6736,16 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>5939805780000</v>
+        <v>5940210650000</v>
       </c>
       <c r="D252" t="n">
-        <v>5939805780000</v>
+        <v>5940210650000</v>
       </c>
       <c r="E252" t="n">
-        <v>5939805780000</v>
+        <v>5940210650000</v>
       </c>
       <c r="F252" t="n">
-        <v>5939805780000</v>
+        <v>5940210650000</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6836,16 +6836,16 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>6077620130000</v>
+        <v>6077524080000</v>
       </c>
       <c r="D256" t="n">
-        <v>6077620130000</v>
+        <v>6077524080000</v>
       </c>
       <c r="E256" t="n">
-        <v>6077620130000</v>
+        <v>6077524080000</v>
       </c>
       <c r="F256" t="n">
-        <v>6077620130000</v>
+        <v>6077524080000</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -6886,18 +6886,43 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>6224272840000</v>
+        <v>6224248910000</v>
       </c>
       <c r="D258" t="n">
-        <v>6224272840000</v>
+        <v>6224248910000</v>
       </c>
       <c r="E258" t="n">
-        <v>6224272840000</v>
+        <v>6224248910000</v>
       </c>
       <c r="F258" t="n">
-        <v>6224272840000</v>
+        <v>6224248910000</v>
       </c>
       <c r="G258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CZM2</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>6243183470000</v>
+      </c>
+      <c r="D259" t="n">
+        <v>6243183470000</v>
+      </c>
+      <c r="E259" t="n">
+        <v>6243183470000</v>
+      </c>
+      <c r="F259" t="n">
+        <v>6243183470000</v>
+      </c>
+      <c r="G259" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6911,18 +6911,93 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>6243183470000</v>
+        <v>6243090940000</v>
       </c>
       <c r="D259" t="n">
-        <v>6243183470000</v>
+        <v>6243090940000</v>
       </c>
       <c r="E259" t="n">
-        <v>6243183470000</v>
+        <v>6243090940000</v>
       </c>
       <c r="F259" t="n">
-        <v>6243183470000</v>
+        <v>6243090940000</v>
       </c>
       <c r="G259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CZM2</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>6355692770000</v>
+      </c>
+      <c r="D260" t="n">
+        <v>6355692770000</v>
+      </c>
+      <c r="E260" t="n">
+        <v>6355692770000</v>
+      </c>
+      <c r="F260" t="n">
+        <v>6355692770000</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CZM2</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>6337051350000</v>
+      </c>
+      <c r="D261" t="n">
+        <v>6337051350000</v>
+      </c>
+      <c r="E261" t="n">
+        <v>6337051350000</v>
+      </c>
+      <c r="F261" t="n">
+        <v>6337051350000</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CZM2</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>6359425540000</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6359425540000</v>
+      </c>
+      <c r="E262" t="n">
+        <v>6359425540000</v>
+      </c>
+      <c r="F262" t="n">
+        <v>6359425540000</v>
+      </c>
+      <c r="G262" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Czech Republic_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6418,18 +6418,41 @@
         <v>7</v>
       </c>
       <c r="C262">
-        <v>6359425540000</v>
+        <v>6359439990000</v>
       </c>
       <c r="D262">
-        <v>6359425540000</v>
+        <v>6359439990000</v>
       </c>
       <c r="E262">
-        <v>6359425540000</v>
+        <v>6359439990000</v>
       </c>
       <c r="F262">
-        <v>6359425540000</v>
+        <v>6359439990000</v>
       </c>
       <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263">
+        <v>6385550740000</v>
+      </c>
+      <c r="D263">
+        <v>6385550740000</v>
+      </c>
+      <c r="E263">
+        <v>6385550740000</v>
+      </c>
+      <c r="F263">
+        <v>6385550740000</v>
+      </c>
+      <c r="G263">
         <v>0</v>
       </c>
     </row>
